--- a/biology/Botanique/Épipactis_de_Plaisance/Épipactis_de_Plaisance.xlsx
+++ b/biology/Botanique/Épipactis_de_Plaisance/Épipactis_de_Plaisance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipactis placentina
 L’Épipactis de Plaisance (Epipactis placentina) est une espèce d'orchidées terrestres européennes, appartenant au genre Epipactis Zinn, 1757 et au groupe Epipactis leptochila.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipactis muelleri subsp. cerritae (Grasso, 1994)
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin placentinus (de Placentia), aujourd'hui Plaisance (Italie), où l'espèce a été découverte.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles : peu nombreuses (3 à 5) et aux bords sinueux, assez petites et réparties sous l'inflorescence.
 Fleurs : rosâtres à rougeâtres, pendantes et assez petites, à périanthe verdâtre au bord rougeâtre, au labelle rose-vert.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De fin juin à juillet.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">De 650 à 1.100 m, à mi-ombre des hêtraies, frênaies et pineraies, en milieu sec à frais.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>France : Isère, Savoie (?).
 Reste de l'Europe : Italie (dont Sicile) et Slovaquie.</t>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_Plaisance</t>
+          <t>Épipactis_de_Plaisance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,7 +724,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune en France, mais souhaitable en raison de sa rareté sur ce territoire.
 Statut de conservation UICN : En danger (EN).
